--- a/TaskWatchlist.xlsx
+++ b/TaskWatchlist.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="EntityorAccount" r:id="rId1" sheetId="5"/>
-    <sheet name="Contacts" r:id="rId2" sheetId="12"/>
-    <sheet name="Fund" r:id="rId3" sheetId="6"/>
-    <sheet name="Deal" r:id="rId4" sheetId="11"/>
+    <sheet name="EntityorAccount" sheetId="5" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="12" r:id="rId2"/>
+    <sheet name="Task" sheetId="13" r:id="rId3"/>
+    <sheet name="Fund" sheetId="6" r:id="rId4"/>
+    <sheet name="Deal" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -228,23 +229,88 @@
     <t>TWCON5</t>
   </si>
   <si>
-    <t>navatariptesting+4391@gmail.com</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>navatariptesting+60434@gmail.com</t>
-  </si>
-  <si>
-    <t>navatariptesting+82567@gmail.com</t>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Due_Date</t>
+  </si>
+  <si>
+    <t>Meeting_Type</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Updated_Comment</t>
+  </si>
+  <si>
+    <t>Updated_Subject</t>
+  </si>
+  <si>
+    <t>Updated_Priority</t>
+  </si>
+  <si>
+    <t>WL Task 1</t>
+  </si>
+  <si>
+    <t>TWTask1</t>
+  </si>
+  <si>
+    <t>navatariptesting+1902@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+57304@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+25839@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+54603@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+12873@gmail.com</t>
+  </si>
+  <si>
+    <t>WL Task 2</t>
+  </si>
+  <si>
+    <t>TWTask2</t>
+  </si>
+  <si>
+    <t>WL Task 3</t>
+  </si>
+  <si>
+    <t>TWTask3</t>
+  </si>
+  <si>
+    <t>TWTask4</t>
+  </si>
+  <si>
+    <t>WL Task 4</t>
+  </si>
+  <si>
+    <t>TWTask5</t>
+  </si>
+  <si>
+    <t>WL Task 5</t>
+  </si>
+  <si>
+    <t>WL Task 6</t>
+  </si>
+  <si>
+    <t>TWTask6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,44 +392,45 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -444,7 +511,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -460,7 +527,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -480,13 +547,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
@@ -508,7 +575,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -528,13 +595,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
@@ -556,7 +623,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -579,13 +646,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
@@ -600,10 +667,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -638,7 +705,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,7 +740,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,21 +834,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -798,7 +865,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -850,43 +917,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="41.0" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="34.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="23.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="2" width="21.0" collapsed="true"/>
-    <col min="13" max="19" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="2" width="19.0" collapsed="true"/>
-    <col min="26" max="1026" customWidth="true" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="19" width="21.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19" style="2" customWidth="1" collapsed="1"/>
+    <col min="26" max="1026" width="9.140625" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1043,7 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -993,7 +1060,7 @@
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1008,7 +1075,7 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1023,7 +1090,7 @@
       <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M6" s="2" t="s">
@@ -1047,25 +1114,25 @@
       <c r="X6" s="2">
         <v>554477331</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
@@ -1089,7 +1156,7 @@
       <c r="X14" s="2">
         <v>554477331</v>
       </c>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1108,27 +1175,27 @@
     <mergeCell ref="Y2:Y6"/>
     <mergeCell ref="Y10:Y14"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,11 +1231,8 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,8 +1248,8 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
+      <c r="F3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,8 +1265,8 @@
       <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>67</v>
+      <c r="F4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,8 +1282,8 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
-        <v>67</v>
+      <c r="F5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,32 +1299,163 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>67</v>
+      <c r="F6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="34.5703125" collapsed="true"/>
-    <col min="6" max="1025" customWidth="true" style="2" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="24.42578125" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1333,14 +1528,14 @@
       <c r="E12" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
@@ -1348,9 +1543,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,6 +1568,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TaskWatchlist.xlsx
+++ b/TaskWatchlist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>TWTask6</t>
+  </si>
+  <si>
+    <t>TWTask7</t>
+  </si>
+  <si>
+    <t>WL Task 8</t>
+  </si>
+  <si>
+    <t>TWTask8</t>
+  </si>
+  <si>
+    <t>CR Task 1</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="1"/>
@@ -1311,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,6 +1446,22 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/TaskWatchlist.xlsx
+++ b/TaskWatchlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EntityorAccount" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>CR Task 1</t>
+  </si>
+  <si>
+    <t>TWTask9</t>
+  </si>
+  <si>
+    <t>Update Label Task 1</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="1"/>
@@ -940,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1062,7 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1073,7 +1079,7 @@
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1088,7 +1094,7 @@
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1103,7 +1109,7 @@
       <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M6" s="2" t="s">
@@ -1127,25 +1133,25 @@
       <c r="X6" s="2">
         <v>554477331</v>
       </c>
-      <c r="Y6" s="11"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="Y10" s="11" t="s">
+      <c r="Y10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="Y13" s="11"/>
+      <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M14" s="2" t="s">
@@ -1169,7 +1175,7 @@
       <c r="X14" s="2">
         <v>554477331</v>
       </c>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1324,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,12 +1463,23 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
